--- a/reconstruction-tools-assessment/supplementary material/S3_table.xlsx
+++ b/reconstruction-tools-assessment/supplementary material/S3_table.xlsx
@@ -1,30 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16729"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Research_Projects\Review_reconstruction\manuscript\supplementary material\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5567381A-01C0-4220-AE0A-CA47D11E5DCF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14442"/>
+    <workbookView xWindow="5148" yWindow="1992" windowWidth="17280" windowHeight="9444" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S3 Table" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="136">
   <si>
     <t>TOOLS</t>
   </si>
@@ -260,9 +266,6 @@
     <t>outputs in SBML L3 with some features missing (MIRIAM compliant CV annotations and SBML Groups). 1 out of 5 points are discounted</t>
   </si>
   <si>
-    <t>Inputs in SBML L2 and outputs in SBML L3 with some features missing (MIRIAM compliant CV annotations and SBML Groups). 2 out of 5 points are discounted</t>
-  </si>
-  <si>
     <t>outputs and inputs in SBML L3 with FBC annotations, SBML Groups and MIRIAM compliant CV annotations. 0 out of 5 points are discounted</t>
   </si>
   <si>
@@ -347,9 +350,6 @@
     <t>It is possible to create a script to make multiple runs but still some manual intervention is needed to export the networks. 1 out of 5 points is discounted</t>
   </si>
   <si>
-    <t>outputs in SBML L3 with some features missing (MIRIAM compliant CV annotations ). However, MATLAB files have MIRIAM fields. 0 out of 5 points is discounted</t>
-  </si>
-  <si>
     <t>Users can 1) change parameters in the process of reconstruction (template models, media composition). They cannot 1) use different orthology algorithms. 2) use their own databases or template models; only the internal database of modelSEED can be used. 2 out of 5 points are discounted</t>
   </si>
   <si>
@@ -383,9 +383,6 @@
     <t>Users can 1) use their own set of templates 2) they can change parameters in the process of reconstruction (orthology parameters). Users cannot 1) use different orthology algorithms. 1 out of 5 points is discounted</t>
   </si>
   <si>
-    <t>It doesn't provide any synonym. 5 out of 5 points are discounted</t>
-  </si>
-  <si>
     <t>The tool provides an interface for people with some previous background on programming and command-line. 2 out of 5 points are discounted</t>
   </si>
   <si>
@@ -429,12 +426,24 @@
   </si>
   <si>
     <t>It is possible to 1) see where each reaction come from, to keep a record of changes performed in the draft network and 2) to see why those changes were performed. It is not possible to 1) keep a record of each version of the network according to each set of changes "committed" to the network (files will be overwritten if saved with the same name); 2) to recover a particular network before a set of changes were made. Therefore 2 out of 5 points are discounted</t>
+  </si>
+  <si>
+    <t>Inputs in SBML L3 and outputs in SBML L3 with some features missing (MIRIAM compliant CV annotations and SBML Groups). Be aware that slightly different output networks can be obtained when using input networks in SBML L2 format (in SBML L3, there will be metabolites explicitily stored in the compartment boundary). 1 out of 5 points are discounted.</t>
+  </si>
+  <si>
+    <t>outputs in SBML L3 with FBC annotations, SBML Groups and MIRIAM compliant CV annotations. Be aware that networks created with RAVEN have to be exported to SBML using the specific functions of RAVEN (not COBRA functions as a regular COBRA user would expect) because otherwise there will be no MIRIAM annotations in the SBML files. 0 out of 5 points is discounted</t>
+  </si>
+  <si>
+    <t>It only provides identifiers from the reference database. No synonyms for other databases are provided. 5 out of 5 points are discounted</t>
+  </si>
+  <si>
+    <t>It provides synonyms for reactions but they can only be found in files in PADMET format and not in the SBML files. Synonyms for metabolites are missing. 2 out of 5 points are discounted</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -946,11 +955,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="63" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="63" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -960,7 +969,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="18.3" x14ac:dyDescent="0.7">
@@ -1099,7 +1108,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="73.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:10" ht="54.9" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="12"/>
       <c r="B7" s="6" t="s">
         <v>17</v>
@@ -1108,25 +1117,25 @@
         <v>18</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>67</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="72" x14ac:dyDescent="0.55000000000000004">
@@ -1168,25 +1177,25 @@
         <v>22</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>70</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="57.6" x14ac:dyDescent="0.55000000000000004">
@@ -1240,7 +1249,7 @@
         <v>74</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="I11" s="8" t="s">
         <v>75</v>
@@ -1249,7 +1258,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:10" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="12"/>
       <c r="B12" s="6" t="s">
         <v>26</v>
@@ -1258,25 +1267,25 @@
         <v>27</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>78</v>
+        <v>132</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>77</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="57.6" x14ac:dyDescent="0.55000000000000004">
@@ -1288,25 +1297,25 @@
         <v>29</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="36.6" x14ac:dyDescent="0.55000000000000004">
@@ -1318,25 +1327,25 @@
         <v>31</v>
       </c>
       <c r="D14" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="F14" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="G14" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="G14" s="9" t="s">
-        <v>86</v>
-      </c>
       <c r="H14" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="J14" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="57.6" x14ac:dyDescent="0.55000000000000004">
@@ -1348,25 +1357,25 @@
         <v>33</v>
       </c>
       <c r="D15" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="G15" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="H15" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="I15" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="F15" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>88</v>
-      </c>
       <c r="J15" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="115.2" x14ac:dyDescent="0.55000000000000004">
@@ -1378,25 +1387,25 @@
         <v>35</v>
       </c>
       <c r="D16" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="F16" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="F16" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="8" t="s">
+      <c r="H16" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="8" t="s">
-        <v>92</v>
-      </c>
       <c r="I16" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="54.9" x14ac:dyDescent="0.55000000000000004">
@@ -1408,25 +1417,25 @@
         <v>37</v>
       </c>
       <c r="D17" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="F17" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="G17" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="H17" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="I17" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="J17" s="9" t="s">
         <v>94</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="I17" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="J17" s="9" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="57.6" x14ac:dyDescent="0.55000000000000004">
@@ -1438,25 +1447,25 @@
         <v>38</v>
       </c>
       <c r="D18" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="F18" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G18" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="F18" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>98</v>
-      </c>
       <c r="H18" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="72" x14ac:dyDescent="0.55000000000000004">
@@ -1468,25 +1477,25 @@
         <v>40</v>
       </c>
       <c r="D19" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E19" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="F19" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="G19" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="H19" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="J19" s="9" t="s">
         <v>102</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="I19" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="J19" s="9" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="100.8" x14ac:dyDescent="0.55000000000000004">
@@ -1498,22 +1507,22 @@
         <v>55</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="J20" s="8" t="s">
         <v>57</v>
@@ -1528,25 +1537,25 @@
         <v>43</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E21" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="G21" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="F21" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="G21" s="9" t="s">
+      <c r="H21" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="I21" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="H21" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="I21" s="9" t="s">
-        <v>106</v>
-      </c>
       <c r="J21" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="100.8" x14ac:dyDescent="0.55000000000000004">
@@ -1558,10 +1567,10 @@
         <v>45</v>
       </c>
       <c r="D22" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="E22" s="8" t="s">
         <v>118</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>121</v>
       </c>
       <c r="F22" s="8" t="s">
         <v>52</v>
@@ -1570,16 +1579,16 @@
         <v>53</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J22" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="54.9" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:10" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="12"/>
       <c r="B23" s="6" t="s">
         <v>46</v>
@@ -1588,25 +1597,25 @@
         <v>47</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="144" x14ac:dyDescent="0.55000000000000004">
@@ -1618,25 +1627,25 @@
         <v>49</v>
       </c>
       <c r="D24" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="G24" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="E24" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>134</v>
-      </c>
       <c r="H24" s="8" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="273.60000000000002" x14ac:dyDescent="0.55000000000000004">
@@ -1648,25 +1657,25 @@
         <v>51</v>
       </c>
       <c r="D25" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F25" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="G25" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="H25" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="G25" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>117</v>
-      </c>
       <c r="I25" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="18.3" x14ac:dyDescent="0.7">
